--- a/docs/import/02四川-寿险-培训记录导入.xlsx
+++ b/docs/import/02四川-寿险-培训记录导入.xlsx
@@ -297,9 +297,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -340,8 +340,9 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -353,6 +354,134 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -361,138 +490,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -518,187 +518,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -771,32 +771,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -821,16 +795,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -868,6 +842,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -877,10 +877,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -889,133 +889,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1436,7 +1436,7 @@
   <dimension ref="A1:P18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="104" zoomScaleNormal="104" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88333333333333" defaultRowHeight="14.25"/>
@@ -1569,10 +1569,10 @@
         <v>23</v>
       </c>
       <c r="L4" s="27">
-        <v>44197.0416666667</v>
+        <v>44562.0416666667</v>
       </c>
       <c r="M4" s="15">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="N4" s="15"/>
     </row>
@@ -1628,6 +1628,9 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1 J4 M5:M1048576">
       <formula1>zcy</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K4">
+      <formula1>"未完成,已完成"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4">
       <formula1>Sheet4!$A$1:$A$100</formula1>
     </dataValidation>
@@ -1637,13 +1640,10 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4">
       <formula1>"A类：基础销售执业合规培训,A+B类：新型人身险和商业非车险执业合规培训,B类：商业非车险执业合规培训,B类：新型人身险执业合规培训"</formula1>
     </dataValidation>
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="M4"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4">
       <formula1>"线下培训,线上培训"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K4">
-      <formula1>"未完成,已完成"</formula1>
-    </dataValidation>
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="M4"/>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/docs/import/02四川-寿险-培训记录导入.xlsx
+++ b/docs/import/02四川-寿险-培训记录导入.xlsx
@@ -296,10 +296,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -340,9 +340,38 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -355,14 +384,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -372,6 +394,45 @@
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -385,7 +446,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -393,38 +461,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -438,13 +482,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -454,43 +491,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -518,187 +518,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -786,41 +786,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -843,17 +819,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -868,19 +838,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyFill="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyFill="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -889,19 +889,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -910,112 +910,112 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1436,7 +1436,7 @@
   <dimension ref="A1:P18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="104" zoomScaleNormal="104" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88333333333333" defaultRowHeight="14.25"/>
@@ -1625,11 +1625,11 @@
     <mergeCell ref="A6:N6"/>
   </mergeCells>
   <dataValidations count="7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4">
+      <formula1>"A类：基础销售执业合规培训,A+B类：新型人身险和商业非车险执业合规培训,B类：商业非车险执业合规培训,B类：新型人身险执业合规培训"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1 J4 M5:M1048576">
       <formula1>zcy</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K4">
-      <formula1>"未完成,已完成"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4">
       <formula1>Sheet4!$A$1:$A$100</formula1>
@@ -1637,11 +1637,11 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4">
       <formula1>"身份证,其他"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4">
-      <formula1>"A类：基础销售执业合规培训,A+B类：新型人身险和商业非车险执业合规培训,B类：商业非车险执业合规培训,B类：新型人身险执业合规培训"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4">
       <formula1>"线下培训,线上培训"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K4">
+      <formula1>"未完成,已完成"</formula1>
     </dataValidation>
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="M4"/>
   </dataValidations>
